--- a/src/Excel/entregable3/AltaPrestamo.xlsx
+++ b/src/Excel/entregable3/AltaPrestamo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C316038-518E-4421-BC67-DF0BCC22DE43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C600197D-9FE1-4B48-BC51-7A7BC6E465EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AltaPrestamo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>usuario</t>
   </si>
@@ -39,9 +39,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>SCISNEROSSPAS</t>
-  </si>
-  <si>
     <t>1234566</t>
   </si>
   <si>
@@ -76,6 +73,18 @@
   </si>
   <si>
     <t>34.33</t>
+  </si>
+  <si>
+    <t>SCISNEROSA1</t>
+  </si>
+  <si>
+    <t>AAACT23123W9873HB</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 10:20:57</t>
   </si>
 </sst>
 </file>
@@ -427,7 +436,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,9 +448,8 @@
     <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="6.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
@@ -452,25 +460,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
@@ -478,25 +486,34 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/AltaPrestamo.xlsx
+++ b/src/Excel/entregable3/AltaPrestamo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C600197D-9FE1-4B48-BC51-7A7BC6E465EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2580EDA-6959-472B-A10E-37A46B3F6076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>usuario</t>
   </si>
@@ -78,13 +78,25 @@
     <t>SCISNEROSA1</t>
   </si>
   <si>
-    <t>AAACT23123W9873HB</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>3 may. 2023, 10:20:57</t>
+    <t>Cuenta</t>
+  </si>
+  <si>
+    <t>1010813766</t>
+  </si>
+  <si>
+    <t>AAACT231230N3YFQ8</t>
+  </si>
+  <si>
+    <t>3 may. 2023, 11:39:17</t>
+  </si>
+  <si>
+    <t>tipo_producto</t>
+  </si>
+  <si>
+    <t>LD011006</t>
   </si>
 </sst>
 </file>
@@ -121,13 +133,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFE49E9E"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,19 +158,24 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE49E9E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -433,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -444,75 +461,89 @@
     <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="11" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/Excel/entregable3/AltaPrestamo.xlsx
+++ b/src/Excel/entregable3/AltaPrestamo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2580EDA-6959-472B-A10E-37A46B3F6076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B044AF-DA47-4234-B92C-6B67A0CE9B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>usuario</t>
   </si>
@@ -97,6 +97,18 @@
   </si>
   <si>
     <t>LD011006</t>
+  </si>
+  <si>
+    <t>usuarioDes</t>
+  </si>
+  <si>
+    <t>ebenito</t>
+  </si>
+  <si>
+    <t>cuentaDesem</t>
+  </si>
+  <si>
+    <t>1010215761</t>
   </si>
 </sst>
 </file>
@@ -450,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -466,12 +478,14 @@
     <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="11" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="13" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -496,20 +510,26 @@
       <c r="H1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -534,16 +554,22 @@
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/src/Excel/entregable3/AltaPrestamo.xlsx
+++ b/src/Excel/entregable3/AltaPrestamo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B044AF-DA47-4234-B92C-6B67A0CE9B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64830797-1D66-44C7-8F0B-594FC243D344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>usuario</t>
   </si>
@@ -78,21 +78,12 @@
     <t>SCISNEROSA1</t>
   </si>
   <si>
-    <t>PASSED</t>
-  </si>
-  <si>
     <t>Cuenta</t>
   </si>
   <si>
     <t>1010813766</t>
   </si>
   <si>
-    <t>AAACT231230N3YFQ8</t>
-  </si>
-  <si>
-    <t>3 may. 2023, 11:39:17</t>
-  </si>
-  <si>
     <t>tipo_producto</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
   </si>
   <si>
     <t>cuentaDesem</t>
-  </si>
-  <si>
-    <t>1010215761</t>
   </si>
 </sst>
 </file>
@@ -464,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
@@ -511,10 +499,10 @@
         <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>2</v>
@@ -526,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
@@ -540,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -555,22 +543,11 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="J2" s="2"/>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/AltaPrestamo.xlsx
+++ b/src/Excel/entregable3/AltaPrestamo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64830797-1D66-44C7-8F0B-594FC243D344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11994DFA-CFC9-4002-BF6B-9E76CB8A9547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/Excel/entregable3/AltaPrestamo.xlsx
+++ b/src/Excel/entregable3/AltaPrestamo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>usuario</t>
   </si>
@@ -97,12 +97,28 @@
   </si>
   <si>
     <t>cuentaDesem</t>
+  </si>
+  <si>
+    <t>1010819567</t>
+  </si>
+  <si>
+    <t>AAACT231460DXSKXY</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>26 may. 2023, 15:03:43</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,19 +474,19 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="13" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="8.453125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="7.08984375" collapsed="true"/>
+    <col min="12" max="13" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
@@ -545,9 +561,20 @@
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/AltaPrestamo.xlsx
+++ b/src/Excel/entregable3/AltaPrestamo.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11994DFA-CFC9-4002-BF6B-9E76CB8A9547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39201DC-D7CF-47A1-9AE7-5D59732C0421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>usuario</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Cuenta</t>
   </si>
   <si>
-    <t>1010813766</t>
-  </si>
-  <si>
     <t>tipo_producto</t>
   </si>
   <si>
@@ -96,13 +93,7 @@
     <t>ebenito</t>
   </si>
   <si>
-    <t>cuentaDesem</t>
-  </si>
-  <si>
     <t>1010819567</t>
-  </si>
-  <si>
-    <t>AAACT231460DXSKXY</t>
   </si>
   <si>
     <t>FAILED</t>
@@ -118,7 +109,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -466,30 +456,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="13.90625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.08984375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="12.7265625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.81640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="8.453125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.36328125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="7.453125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="7.08984375" collapsed="true"/>
-    <col min="12" max="13" bestFit="true" customWidth="true" width="19.7265625" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="8.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.36328125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="7.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="19.7265625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -500,7 +489,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>7</v>
@@ -515,25 +504,22 @@
         <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -544,7 +530,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -559,22 +545,19 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
         <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/AltaPrestamo.xlsx
+++ b/src/Excel/entregable3/AltaPrestamo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39201DC-D7CF-47A1-9AE7-5D59732C0421}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE7E33C-4BFA-4E1D-B22E-BAA45B5D8481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>usuario</t>
   </si>
@@ -84,25 +84,28 @@
     <t>tipo_producto</t>
   </si>
   <si>
-    <t>LD011006</t>
-  </si>
-  <si>
     <t>usuarioDes</t>
   </si>
   <si>
     <t>ebenito</t>
   </si>
   <si>
-    <t>1010819567</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>26 may. 2023, 15:03:43</t>
+    <t>LD011005</t>
+  </si>
+  <si>
+    <t>AAACT23221V2QG2MQ</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 16:12:34</t>
+  </si>
+  <si>
+    <t>AAACT23221FB99X93</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 16:14:41</t>
   </si>
 </sst>
 </file>
@@ -456,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,7 +507,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -530,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
@@ -545,19 +548,60 @@
         <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
       </c>
       <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2">
+        <v>1010830776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
-        <v>22</v>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3">
+        <v>1010830784</v>
       </c>
     </row>
   </sheetData>

--- a/src/Excel/entregable3/AltaPrestamo.xlsx
+++ b/src/Excel/entregable3/AltaPrestamo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\Regresion\src\Excel\entregable3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE7E33C-4BFA-4E1D-B22E-BAA45B5D8481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7D80AA-AECE-43E8-90D2-53544B9C5906}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>usuario</t>
   </si>
@@ -93,19 +93,34 @@
     <t>LD011005</t>
   </si>
   <si>
-    <t>AAACT23221V2QG2MQ</t>
-  </si>
-  <si>
     <t>PASSED</t>
   </si>
   <si>
-    <t>9 ago. 2023, 16:12:34</t>
-  </si>
-  <si>
-    <t>AAACT23221FB99X93</t>
-  </si>
-  <si>
-    <t>9 ago. 2023, 16:14:41</t>
+    <t>AAACT2322193CJ8B4</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 16:38:49</t>
+  </si>
+  <si>
+    <t>AAACT23221M0M2KN0</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 16:40:37</t>
+  </si>
+  <si>
+    <t>AAACT2322155LBXRC</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 16:42:40</t>
+  </si>
+  <si>
+    <t>1010830849</t>
+  </si>
+  <si>
+    <t>AAACT2322178H8Y03</t>
+  </si>
+  <si>
+    <t>9 ago. 2023, 16:44:33</t>
   </si>
 </sst>
 </file>
@@ -459,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -551,16 +566,16 @@
         <v>20</v>
       </c>
       <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
         <v>23</v>
-      </c>
-      <c r="K2" t="s">
-        <v>22</v>
       </c>
       <c r="L2" t="s">
         <v>24</v>
       </c>
       <c r="M2">
-        <v>1010830776</v>
+        <v>1010830814</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
@@ -592,7 +607,7 @@
         <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
         <v>25</v>
@@ -601,7 +616,89 @@
         <v>26</v>
       </c>
       <c r="M3">
-        <v>1010830784</v>
+        <v>1010830822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4">
+        <v>1010830838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
